--- a/lecNote/01_python/1010_ch10_dtype을int32에서int64로변경시.xlsx
+++ b/lecNote/01_python/1010_ch10_dtype을int32에서int64로변경시.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai\lecNote\01_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5E3E372-9902-4415-B24E-829542F79A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6919F992-C2E3-4DD1-A15E-E13BEEB35458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="변경전 a" sheetId="1" r:id="rId1"/>
     <sheet name="변경후 a" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +151,46 @@
   </si>
   <si>
     <t>표준편차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2사분위수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1사분위수(Q1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3사분위수(Q3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IQR(Q3-Q1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하한이상치limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Q1-1.5*IQR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Q3+1.5*IQR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상한이상치limit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -157,7 +198,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,13 +214,55 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -267,7 +350,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -294,6 +377,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1421,7 +1522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1614,4 +1715,170 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2286E052-8525-46A3-9FFF-7A0BD5CD0B9F}">
+  <dimension ref="B1:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="12.875" style="13" customWidth="1"/>
+    <col min="5" max="6" width="7.125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="7.125" style="13" customWidth="1"/>
+    <col min="9" max="9" width="7.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="10">
+        <f>AVERAGE(B1:B12)</f>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="11">
+        <f>VAR(B1:B12)</f>
+        <v>573.33333333333314</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="9">
+        <f>STDEV(B1:B12)</f>
+        <v>23.944379994757291</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>70</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="13">
+        <f>QUARTILE($B$1:$B$12, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>72</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="13">
+        <f>E4-1.5*H4</f>
+        <v>57</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>74</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="13">
+        <f>QUARTILE($B$1:$B$12, 1)</f>
+        <v>73.5</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="13">
+        <f>E6-E4</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>76</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="14">
+        <f>QUARTILE($B$1:$B$12, 2)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>78</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="13">
+        <f>QUARTILE($B$1:$B$12, 3)</f>
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>80</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="13">
+        <f>QUARTILE($B$1:$B$12, 4)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>82</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="13">
+        <f>E6+1.5*H4</f>
+        <v>101</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lecNote/01_python/1010_ch10_dtype을int32에서int64로변경시.xlsx
+++ b/lecNote/01_python/1010_ch10_dtype을int32에서int64로변경시.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai\lecNote\01_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6919F992-C2E3-4DD1-A15E-E13BEEB35458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA41DD48-798B-401B-8BAE-73098A0AE514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1722,7 +1722,7 @@
   <dimension ref="B1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
